--- a/user.xlsx
+++ b/user.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\122\Pictures\STMNC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099C2AD3-1352-4F05-B0C5-3B5558AA4AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADDE311-53B9-4A45-A6FE-AD183E622900}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
   <si>
     <t>username</t>
   </si>
@@ -86,6 +86,24 @@
   </si>
   <si>
     <t>290bd5131daa6a8785b1a9484809c0fad873c563c1dc0e3561a44d113124cd3f</t>
+  </si>
+  <si>
+    <t>thenhatt</t>
+  </si>
+  <si>
+    <t>ducanhh</t>
+  </si>
+  <si>
+    <t>thaison_mtpp</t>
+  </si>
+  <si>
+    <t>tuandat_pariss</t>
+  </si>
+  <si>
+    <t>tuananhh</t>
+  </si>
+  <si>
+    <t>manhh</t>
   </si>
 </sst>
 </file>
@@ -467,7 +485,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -598,22 +616,106 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8"/>
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9"/>
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10"/>
+      <c r="A10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11"/>
+      <c r="A11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12"/>
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13"/>
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14"/>
